--- a/output/compo fish/per-habitat/Mann_Whitney_test_fish_habitat.xlsx
+++ b/output/compo fish/per-habitat/Mann_Whitney_test_fish_habitat.xlsx
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792207792207792</v>
+        <v>0.841269841269841</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00336533032185206</v>
+        <v>0.0119518162996424</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.609523809523809</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.536796536796537</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176036137775268</v>
+        <v>0.235224920007529</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>0.914285714285714</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.792207792207792</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333314511575381</v>
+        <v>0.48922454357237</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.609523809523809</v>
+        <v>0.73015873015873</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.930735930735931</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.302540937323546</v>
+        <v>0.139186900056465</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.352380952380952</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.930735930735931</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.137809147374365</v>
+        <v>0.0750047054394881</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0380952380952381</v>
+        <v>0.0317460317460317</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.930735930735931</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00900056465273857</v>
+        <v>0.0295501599849426</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.476190476190476</v>
+        <v>0.73015873015873</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>0.792207792207792</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176036137775268</v>
+        <v>0.120365142104273</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>0.609523809523809</v>
+        <v>0.412698412698413</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.428571428571429</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176036137775268</v>
+        <v>0.296536796536796</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.171428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0.329004329004329</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1327,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.105985319028797</v>
+        <v>0.10347261434218</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.352380952380952</v>
+        <v>0.412698412698413</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.792207792207792</v>
+        <v>0.841269841269841</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.641852060982496</v>
+        <v>0.730613589309241</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.171428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0.428571428571429</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -1531,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.121151891586674</v>
+        <v>0.207933370976849</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>0.914285714285714</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>0.662337662337662</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>0.687046866177301</v>
+        <v>0.580839450404668</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>0.352380952380952</v>
+        <v>0.412698412698413</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.975324675324675</v>
+        <v>0.836485977790326</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>0.761904761904762</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>

--- a/output/compo fish/per-habitat/Mann_Whitney_test_fish_habitat.xlsx
+++ b/output/compo fish/per-habitat/Mann_Whitney_test_fish_habitat.xlsx
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.841269841269841</v>
+        <v>0.792207792207792</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0119518162996424</v>
+        <v>0.00336533032185206</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.555555555555556</v>
+        <v>0.609523809523809</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.69047619047619</v>
+        <v>0.536796536796537</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235224920007529</v>
+        <v>0.176036137775268</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>0.904761904761905</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.792207792207792</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.48922454357237</v>
+        <v>0.333314511575381</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.73015873015873</v>
+        <v>0.609523809523809</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.547619047619048</v>
+        <v>0.930735930735931</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.139186900056465</v>
+        <v>0.302540937323546</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.19047619047619</v>
+        <v>0.352380952380952</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.547619047619048</v>
+        <v>0.930735930735931</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0750047054394881</v>
+        <v>0.137809147374365</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.930735930735931</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0295501599849426</v>
+        <v>0.00900056465273857</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.73015873015873</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>0.547619047619048</v>
+        <v>0.792207792207792</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0.120365142104273</v>
+        <v>0.176036137775268</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>0.412698412698413</v>
+        <v>0.609523809523809</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.69047619047619</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.296536796536796</v>
+        <v>0.176036137775268</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.285714285714286</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222222222222222</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1327,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.10347261434218</v>
+        <v>0.105985319028797</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.412698412698413</v>
+        <v>0.352380952380952</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.841269841269841</v>
+        <v>0.792207792207792</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.730613589309241</v>
+        <v>0.641852060982496</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285714285714286</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0.547619047619048</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -1531,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.207933370976849</v>
+        <v>0.121151891586674</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>0.69047619047619</v>
+        <v>0.662337662337662</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>0.580839450404668</v>
+        <v>0.687046866177301</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>0.412698412698413</v>
+        <v>0.352380952380952</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.836485977790326</v>
+        <v>0.975324675324675</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>0.904761904761905</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
